--- a/WaterData.xlsx
+++ b/WaterData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/Thesis/Models/Pretreatment-Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCC364-7A84-2148-9F2C-07626D5F80F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345BAD2-3289-F546-8334-0C5F38C6AB65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27000" windowHeight="18020" xr2:uid="{D28E4BA1-CF3F-014E-835F-6BAE187F509E}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="27000" windowHeight="18020" xr2:uid="{D28E4BA1-CF3F-014E-835F-6BAE187F509E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -10092,7 +10092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10107,6 +10107,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10423,8 +10425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A61BD5-5080-994B-AFD5-1A92A4B63D4C}">
   <dimension ref="A1:FU298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BU270" sqref="BU270"/>
+    <sheetView tabSelected="1" topLeftCell="CT254" workbookViewId="0">
+      <selection activeCell="DA279" sqref="DA279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54007,332 +54009,332 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="279" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="1:177" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="BG279" s="10">
+      <c r="BG279" s="14">
         <v>6.5</v>
       </c>
-      <c r="BP279" s="11">
+      <c r="BP279" s="15">
         <v>135963</v>
       </c>
-      <c r="BQ279" s="11">
+      <c r="BQ279" s="15">
         <v>134641</v>
       </c>
-      <c r="BU279" s="11">
+      <c r="BU279" s="15">
         <v>0</v>
       </c>
-      <c r="BV279" s="1" t="s">
+      <c r="BV279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="BW279" s="12">
+      <c r="BW279" s="14">
         <v>1.2</v>
       </c>
-      <c r="BX279" s="1" t="s">
+      <c r="BX279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="BY279" s="12">
+      <c r="BY279" s="14">
         <v>23</v>
       </c>
-      <c r="BZ279" s="11">
+      <c r="BZ279" s="15">
         <v>18</v>
       </c>
-      <c r="CA279" s="10">
+      <c r="CA279" s="14">
         <v>8.0399999999999991</v>
       </c>
-      <c r="CB279" s="9" t="s">
+      <c r="CB279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CC279" s="9" t="s">
+      <c r="CC279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CD279" s="13">
+      <c r="CD279" s="15">
         <v>348.5</v>
       </c>
-      <c r="CE279" s="13">
+      <c r="CE279" s="15">
         <v>59.13</v>
       </c>
-      <c r="CF279" s="13">
+      <c r="CF279" s="15">
         <v>0</v>
       </c>
-      <c r="CG279" s="13">
+      <c r="CG279" s="15">
         <v>153</v>
       </c>
-      <c r="CH279" s="13">
+      <c r="CH279" s="15">
         <v>5575</v>
       </c>
-      <c r="CI279" s="9" t="s">
+      <c r="CI279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CJ279" s="13">
+      <c r="CJ279" s="15">
         <v>80672</v>
       </c>
-      <c r="CK279" s="9" t="s">
+      <c r="CK279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CL279" s="9" t="s">
+      <c r="CL279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CM279" s="10">
+      <c r="CM279" s="14">
         <v>0.05</v>
       </c>
-      <c r="CN279" s="13">
+      <c r="CN279" s="15">
         <v>19.2</v>
       </c>
-      <c r="CO279" s="9" t="s">
+      <c r="CO279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CP279" s="10">
+      <c r="CP279" s="14">
         <v>48</v>
       </c>
-      <c r="CQ279" s="13">
+      <c r="CQ279" s="15">
         <v>880</v>
       </c>
-      <c r="CR279" s="13">
+      <c r="CR279" s="15">
         <v>1152</v>
       </c>
-      <c r="CS279" s="9" t="s">
+      <c r="CS279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CT279" s="13">
+      <c r="CT279" s="15">
         <v>59.5</v>
       </c>
-      <c r="CU279" s="13">
+      <c r="CU279" s="15">
         <v>60.665000000000006</v>
       </c>
-      <c r="CV279" s="9" t="s">
+      <c r="CV279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="CW279" s="13">
+      <c r="CW279" s="15">
         <v>95.47</v>
       </c>
-      <c r="CX279" s="13">
+      <c r="CX279" s="15">
         <v>188.755</v>
       </c>
-      <c r="CY279" s="13">
+      <c r="CY279" s="15">
         <v>47584.81</v>
       </c>
-      <c r="CZ279" s="10">
+      <c r="CZ279" s="14">
         <v>3.44</v>
       </c>
-      <c r="DA279" s="13">
+      <c r="DA279" s="15">
         <v>1210.2550000000001</v>
       </c>
-      <c r="DB279" s="10">
+      <c r="DB279" s="14">
         <v>6</v>
       </c>
-      <c r="DC279" s="9" t="s">
+      <c r="DC279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DD279" s="9" t="s">
+      <c r="DD279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DE279" s="9" t="s">
+      <c r="DE279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DF279" s="13">
+      <c r="DF279" s="15">
         <v>10.4</v>
       </c>
-      <c r="DG279" s="9" t="s">
+      <c r="DG279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DH279" s="9" t="s">
+      <c r="DH279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DI279" s="13">
+      <c r="DI279" s="15">
         <v>243</v>
       </c>
-      <c r="DJ279" s="9" t="s">
+      <c r="DJ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DK279" s="13">
+      <c r="DK279" s="15">
         <v>41459.505000000005</v>
       </c>
-      <c r="DL279" s="9" t="s">
+      <c r="DL279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DM279" s="9" t="s">
+      <c r="DM279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DN279" s="13">
+      <c r="DN279" s="15">
         <v>34.44</v>
       </c>
-      <c r="DO279" s="9" t="s">
+      <c r="DO279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DP279" s="9" t="s">
+      <c r="DP279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DQ279" s="9" t="s">
+      <c r="DQ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DR279" s="9" t="s">
+      <c r="DR279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DS279" s="10">
+      <c r="DS279" s="14">
         <v>0.33499999999999996</v>
       </c>
-      <c r="DT279" s="9">
+      <c r="DT279" s="2">
         <v>624</v>
       </c>
-      <c r="DU279" s="9" t="s">
+      <c r="DU279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DV279" s="13">
+      <c r="DV279" s="15">
         <v>343.96500000000003</v>
       </c>
-      <c r="DW279" s="9" t="s">
+      <c r="DW279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DX279" s="10">
+      <c r="DX279" s="14">
         <v>0.1</v>
       </c>
-      <c r="DY279" s="9" t="s">
+      <c r="DY279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="DZ279" s="9" t="s">
+      <c r="DZ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EA279" s="9" t="s">
+      <c r="EA279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EB279" s="13">
+      <c r="EB279" s="15">
         <v>45.454999999999998</v>
       </c>
-      <c r="EC279" s="9" t="s">
+      <c r="EC279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="ED279" s="13">
+      <c r="ED279" s="15">
         <v>160.22499999999999</v>
       </c>
-      <c r="EE279" s="9" t="s">
+      <c r="EE279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EF279" s="9" t="s">
+      <c r="EF279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EG279" s="9" t="s">
+      <c r="EG279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EH279" s="1" t="s">
+      <c r="EH279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EI279" s="1" t="s">
+      <c r="EI279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EJ279" s="11">
+      <c r="EJ279" s="15">
         <v>7.05</v>
       </c>
-      <c r="EK279" s="1" t="s">
+      <c r="EK279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EL279" s="1" t="s">
+      <c r="EL279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EM279" s="1" t="s">
+      <c r="EM279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EN279" s="1" t="s">
+      <c r="EN279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EO279" s="1" t="s">
+      <c r="EO279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EP279" s="1">
+      <c r="EP279" s="2">
         <v>240</v>
       </c>
-      <c r="EQ279" s="1" t="s">
+      <c r="EQ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="ER279" s="1" t="s">
+      <c r="ER279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="ES279" s="1" t="s">
+      <c r="ES279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="ET279" s="1" t="s">
+      <c r="ET279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EU279" s="1">
+      <c r="EU279" s="2">
         <v>1585</v>
       </c>
-      <c r="EV279" s="1" t="s">
+      <c r="EV279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EW279" s="1" t="s">
+      <c r="EW279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EX279" s="1" t="s">
+      <c r="EX279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EY279" s="1" t="s">
+      <c r="EY279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="EZ279" s="1" t="s">
+      <c r="EZ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FA279" s="1" t="s">
+      <c r="FA279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FB279" s="1" t="s">
+      <c r="FB279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FC279" s="1" t="s">
+      <c r="FC279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FD279" s="1" t="s">
+      <c r="FD279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FE279" s="1" t="s">
+      <c r="FE279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FF279" s="1" t="s">
+      <c r="FF279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FG279" s="1" t="s">
+      <c r="FG279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FH279" s="1" t="s">
+      <c r="FH279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FI279" s="1" t="s">
+      <c r="FI279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FJ279" s="1" t="s">
+      <c r="FJ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FK279" s="1" t="s">
+      <c r="FK279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FL279" s="1" t="s">
+      <c r="FL279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FM279" s="1" t="s">
+      <c r="FM279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FN279" s="1" t="s">
+      <c r="FN279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FO279" s="1" t="s">
+      <c r="FO279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FP279" s="1" t="s">
+      <c r="FP279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FQ279" s="1" t="s">
+      <c r="FQ279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FR279" s="1" t="s">
+      <c r="FR279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FS279" s="1" t="s">
+      <c r="FS279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FT279" s="1" t="s">
+      <c r="FT279" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="FU279" s="1" t="s">
+      <c r="FU279" s="2" t="s">
         <v>3327</v>
       </c>
     </row>
